--- a/biology/Zoologie/Chinlea/Chinlea.xlsx
+++ b/biology/Zoologie/Chinlea/Chinlea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chinlea sorenseni
-Chinlea est un genre éteint de poissons à membres charnus, rattaché à la famille des Mawsoniidae, elle-même regroupée au sein des Coelacanthiformes. Une seule espèce est assignée à ce genre : Chinlea sorenseni  créée par B. Schaeffer en 1967 à partir de fossiles découverts dans l'ouest des États-Unis[1].
+Chinlea est un genre éteint de poissons à membres charnus, rattaché à la famille des Mawsoniidae, elle-même regroupée au sein des Coelacanthiformes. Une seule espèce est assignée à ce genre : Chinlea sorenseni  créée par B. Schaeffer en 1967 à partir de fossiles découverts dans l'ouest des États-Unis.
 Ces fossiles proviennent de sédiments datés du Trias supérieur, il y a environ entre −237 et −201 Ma (millions d'années).
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre provient de la formation géologique de Chinle dans laquelle les fossiles ont été découverts.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cœlacanthe vivant en eau douce pouvait mesurer jusqu'à 1,50 mètre de long.
 </t>
@@ -575,9 +591,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénique, position du genre Chinlea de la famille éteinte des Mawsoniidae[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénique, position du genre Chinlea de la famille éteinte des Mawsoniidae :
 </t>
         </is>
       </c>
